--- a/data_processing_elements-H16.xlsx
+++ b/data_processing_elements-H16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlaforme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E68A982-8915-4F14-A521-75D613C86A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA68793-A3F6-496F-9728-42DF4516A573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="379">
   <si>
     <t>index</t>
   </si>
@@ -986,9 +986,6 @@
   </si>
   <si>
     <t>body mass index</t>
-  </si>
-  <si>
-    <t>Please confirm that the mean quantity of alcohol per standard drink in Denmark is 10 grams</t>
   </si>
   <si>
     <t>recode(1=2; 2=2; 3=1; 4=0; ELSE=NA)</t>
@@ -1822,10 +1819,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,7 +1846,8 @@
     <col min="17" max="17" width="12.42578125" style="11" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" style="11" customWidth="1"/>
     <col min="19" max="19" width="19.85546875" style="11" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="11"/>
+    <col min="20" max="20" width="119.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1922,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -1940,10 +1938,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="10"/>
       <c r="J2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="10"/>
@@ -1959,7 +1957,7 @@
         <v>27</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1969,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -1989,13 +1987,13 @@
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="1"/>
@@ -2010,7 +2008,7 @@
         <v>33</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>286</v>
@@ -2022,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>34</v>
@@ -2042,14 +2040,14 @@
         <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2073,7 +2071,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>41</v>
@@ -2093,10 +2091,10 @@
       <c r="H5" s="1"/>
       <c r="I5" s="10"/>
       <c r="J5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="10"/>
@@ -2124,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>46</v>
@@ -2144,22 +2142,22 @@
         <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>310</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>25</v>
@@ -2171,10 +2169,10 @@
         <v>39</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U6" s="1"/>
     </row>
@@ -2183,7 +2181,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>51</v>
@@ -2230,7 +2228,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>56</v>
@@ -2277,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>62</v>
@@ -2324,7 +2322,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>66</v>
@@ -2369,7 +2367,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>70</v>
@@ -2414,7 +2412,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>73</v>
@@ -2461,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>77</v>
@@ -2508,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>81</v>
@@ -2555,7 +2553,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>85</v>
@@ -2602,7 +2600,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>88</v>
@@ -2642,7 +2640,7 @@
         <v>60</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U16" s="1"/>
     </row>
@@ -2651,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>91</v>
@@ -2698,7 +2696,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>94</v>
@@ -2738,7 +2736,7 @@
         <v>60</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U18" s="1"/>
     </row>
@@ -2747,7 +2745,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>97</v>
@@ -2794,7 +2792,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>99</v>
@@ -2820,10 +2818,10 @@
         <v>292</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2847,7 +2845,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>102</v>
@@ -2867,16 +2865,16 @@
       <c r="H21" s="1"/>
       <c r="I21" s="10"/>
       <c r="J21" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>90</v>
@@ -2902,7 +2900,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>105</v>
@@ -2922,7 +2920,7 @@
         <v>93</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2939,7 +2937,7 @@
         <v>33</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -2949,7 +2947,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>107</v>
@@ -2969,16 +2967,16 @@
       <c r="H23" s="1"/>
       <c r="I23" s="10"/>
       <c r="J23" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>108</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>109</v>
@@ -3004,7 +3002,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>110</v>
@@ -3022,16 +3020,16 @@
       <c r="H24" s="1"/>
       <c r="I24" s="10"/>
       <c r="J24" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>108</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>109</v>
@@ -3047,7 +3045,7 @@
         <v>33</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -3057,7 +3055,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>112</v>
@@ -3077,19 +3075,19 @@
       <c r="H25" s="1"/>
       <c r="I25" s="10"/>
       <c r="J25" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K25" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="O25" s="11" t="s">
         <v>104</v>
@@ -3104,7 +3102,7 @@
         <v>33</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -3114,7 +3112,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>116</v>
@@ -3134,19 +3132,19 @@
       <c r="H26" s="1"/>
       <c r="I26" s="10"/>
       <c r="J26" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="M26" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>104</v>
@@ -3161,7 +3159,7 @@
         <v>33</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -3171,7 +3169,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>119</v>
@@ -3218,7 +3216,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>122</v>
@@ -3265,7 +3263,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>125</v>
@@ -3312,7 +3310,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>128</v>
@@ -3359,7 +3357,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>131</v>
@@ -3379,16 +3377,16 @@
       <c r="H31" s="1"/>
       <c r="I31" s="10"/>
       <c r="J31" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="M31" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>109</v>
@@ -3404,7 +3402,7 @@
         <v>33</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -3414,7 +3412,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>134</v>
@@ -3434,16 +3432,16 @@
       <c r="H32" s="1"/>
       <c r="I32" s="10"/>
       <c r="J32" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>135</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>136</v>
@@ -3469,7 +3467,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>137</v>
@@ -3489,16 +3487,16 @@
       <c r="H33" s="1"/>
       <c r="I33" s="10"/>
       <c r="J33" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>136</v>
@@ -3524,7 +3522,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>139</v>
@@ -3544,16 +3542,16 @@
       <c r="H34" s="1"/>
       <c r="I34" s="10"/>
       <c r="J34" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="L34" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>136</v>
@@ -3579,7 +3577,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>141</v>
@@ -3599,16 +3597,16 @@
       <c r="H35" s="1"/>
       <c r="I35" s="10"/>
       <c r="J35" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="K35" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>338</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>136</v>
@@ -3626,7 +3624,7 @@
         <v>33</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -3636,7 +3634,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>143</v>
@@ -3656,16 +3654,16 @@
       <c r="H36" s="1"/>
       <c r="I36" s="10"/>
       <c r="J36" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="L36" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>136</v>
@@ -3691,7 +3689,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>145</v>
@@ -3738,7 +3736,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>148</v>
@@ -3785,7 +3783,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>152</v>
@@ -3805,19 +3803,19 @@
         <v>155</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>288</v>
       </c>
       <c r="L39" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M39" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="N39" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
@@ -3830,7 +3828,7 @@
         <v>39</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -3840,7 +3838,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>156</v>
@@ -3887,7 +3885,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>159</v>
@@ -3918,7 +3916,7 @@
         <v>60</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>60</v>
@@ -3927,7 +3925,7 @@
         <v>60</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U41" s="1"/>
     </row>
@@ -3936,7 +3934,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>162</v>
@@ -3983,7 +3981,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>165</v>
@@ -4003,22 +4001,22 @@
       <c r="H43" s="1"/>
       <c r="I43" s="10"/>
       <c r="J43" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>166</v>
       </c>
       <c r="L43" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="M43" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="N43" s="1" t="s">
+      <c r="O43" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="O43" s="14" t="s">
-        <v>350</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>25</v>
@@ -4030,11 +4028,9 @@
         <v>33</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="T43" s="6" t="s">
-        <v>293</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4042,7 +4038,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>169</v>
@@ -4089,7 +4085,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>172</v>
@@ -4109,16 +4105,16 @@
         <v>175</v>
       </c>
       <c r="J45" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>354</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -4132,7 +4128,7 @@
         <v>39</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -4142,7 +4138,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>176</v>
@@ -4162,16 +4158,16 @@
         <v>178</v>
       </c>
       <c r="J46" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>354</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -4185,7 +4181,7 @@
         <v>39</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U46" s="1"/>
     </row>
@@ -4194,7 +4190,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>179</v>
@@ -4241,7 +4237,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>182</v>
@@ -4261,16 +4257,16 @@
         <v>184</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>357</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -4294,7 +4290,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>185</v>
@@ -4340,7 +4336,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>189</v>
@@ -4387,7 +4383,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>192</v>
@@ -4434,7 +4430,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>194</v>
@@ -4481,7 +4477,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>197</v>
@@ -4528,7 +4524,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>199</v>
@@ -4575,7 +4571,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>201</v>
@@ -4622,7 +4618,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>204</v>
@@ -4669,7 +4665,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>206</v>
@@ -4716,7 +4712,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>208</v>
@@ -4763,7 +4759,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>211</v>
@@ -4808,7 +4804,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>213</v>
@@ -4853,7 +4849,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>215</v>
@@ -4898,7 +4894,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>217</v>
@@ -4943,7 +4939,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>219</v>
@@ -4988,7 +4984,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>221</v>
@@ -5033,7 +5029,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>223</v>
@@ -5078,7 +5074,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>225</v>
@@ -5125,7 +5121,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>228</v>
@@ -5145,19 +5141,19 @@
       <c r="H67" s="1"/>
       <c r="I67" s="10"/>
       <c r="J67" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>290</v>
       </c>
       <c r="L67" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="N67" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="M67" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1" t="s">
@@ -5180,7 +5176,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>231</v>
@@ -5200,19 +5196,19 @@
         <v>233</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>290</v>
       </c>
       <c r="L68" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="N68" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="M68" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1" t="s">
@@ -5225,7 +5221,7 @@
         <v>203</v>
       </c>
       <c r="S68" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
@@ -5235,7 +5231,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>234</v>
@@ -5282,7 +5278,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>237</v>
@@ -5329,7 +5325,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>240</v>
@@ -5376,7 +5372,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>242</v>
@@ -5423,7 +5419,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>244</v>
@@ -5470,7 +5466,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>248</v>
@@ -5517,7 +5513,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>252</v>
@@ -5564,7 +5560,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>256</v>
@@ -5611,7 +5607,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>259</v>
@@ -5659,7 +5655,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>263</v>
@@ -5706,7 +5702,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>267</v>
@@ -5726,16 +5722,16 @@
         <v>269</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>268</v>
       </c>
       <c r="L79" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M79" s="10" t="s">
         <v>363</v>
-      </c>
-      <c r="M79" s="10" t="s">
-        <v>364</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -5749,7 +5745,7 @@
         <v>39</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
@@ -5759,7 +5755,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>270</v>
@@ -5806,7 +5802,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>273</v>
@@ -5853,7 +5849,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>276</v>
@@ -5873,13 +5869,13 @@
         <v>188</v>
       </c>
       <c r="J82" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K82" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="K82" s="13" t="s">
+      <c r="M82" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="M82" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -5893,7 +5889,7 @@
         <v>39</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
@@ -5903,7 +5899,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>279</v>
@@ -5948,7 +5944,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>282</v>

--- a/data_processing_elements-H16.xlsx
+++ b/data_processing_elements-H16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA68793-A3F6-496F-9728-42DF4516A573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7D02E3-840F-4537-886D-AE52888429E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1819,10 +1819,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3748,7 +3748,7 @@
         <v>150</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>151</v>
@@ -3850,7 +3850,7 @@
         <v>158</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>151</v>
